--- a/trunk/documentation/2 requirement/software-poc-checklist.xlsx
+++ b/trunk/documentation/2 requirement/software-poc-checklist.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2790" windowWidth="18705" windowHeight="8400" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4140" yWindow="1065" windowWidth="18705" windowHeight="8400" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 관련" sheetId="1" r:id="rId1"/>
     <sheet name="UI 관련" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'UI 관련'!$A$1:$H$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'UI 관련'!$A$1:$H$55</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,56 +529,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Multi Device 지원
+    <t>Drill Down / Tree Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Export / Import 시 숫자 타입, 문자 타입 정보 유지되는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 병합한 내용이 스크롤 시 화면에 유지 되는지 (Floating)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formatting (Locale 고려할 것)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag &amp; Drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능한 UI Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 개발팀 운영 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 안에서의 개행 가능 여부 (wordwrap)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 공통팀 운영 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용 Editor 툴 간의 연계 사례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi Device 지원 
 (N Screen)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Drill Down / Tree Grid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel Export / Import 시 숫자 타입, 문자 타입 정보 유지되는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀 병합한 내용이 스크롤 시 화면에 유지 되는지 (Floating)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formatting (Locale 고려할 것)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drag &amp; Drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가능한 UI Component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 개발팀 운영 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀 안에서의 개행 가능 여부 (wordwrap)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수행사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 공통팀 운영 가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상용 Editor 툴 간의 연계 사례</t>
+    <t>UI Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +743,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -749,21 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,10 +1114,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1135,8 +1134,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1147,8 +1146,8 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1159,8 +1158,8 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
@@ -1171,8 +1170,8 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1183,8 +1182,8 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1195,8 +1194,8 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1207,8 +1206,8 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1219,10 +1218,10 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1235,8 +1234,8 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1246,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1261,8 +1260,8 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1275,8 +1274,8 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1287,8 +1286,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1299,8 +1298,8 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1311,7 +1310,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1325,10 +1324,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1341,8 +1340,8 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
@@ -1353,8 +1352,8 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1367,8 +1366,8 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1379,8 +1378,8 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1393,8 +1392,8 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1405,8 +1404,8 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1419,8 +1418,8 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1431,8 +1430,8 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1445,8 +1444,8 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1457,8 +1456,8 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1469,8 +1468,8 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1481,8 +1480,8 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1492,8 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1505,8 +1504,8 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1519,8 +1518,8 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
@@ -1531,8 +1530,8 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
@@ -1543,8 +1542,8 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
@@ -1555,10 +1554,10 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1575,8 +1574,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1591,8 +1590,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1607,8 +1606,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1623,8 +1622,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
@@ -1639,8 +1638,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="3" t="s">
         <v>78</v>
       </c>
@@ -1655,8 +1654,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
         <v>79</v>
       </c>
@@ -1698,19 +1697,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.125" style="9" bestFit="1" customWidth="1"/>
@@ -1744,10 +1743,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1760,8 +1759,12 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>114</v>
       </c>
@@ -1772,8 +1775,12 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>115</v>
       </c>
@@ -1784,8 +1791,10 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1798,8 +1807,12 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>116</v>
       </c>
@@ -1810,8 +1823,12 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>117</v>
       </c>
@@ -1822,8 +1839,12 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>118</v>
       </c>
@@ -1834,8 +1855,12 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>119</v>
       </c>
@@ -1846,9 +1871,11 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23" t="s">
-        <v>128</v>
+      <c r="A10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>63</v>
@@ -1860,8 +1887,12 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
@@ -1872,8 +1903,12 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>65</v>
       </c>
@@ -1884,8 +1919,12 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>66</v>
       </c>
@@ -1896,8 +1935,12 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>69</v>
       </c>
@@ -1908,8 +1951,12 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>67</v>
       </c>
@@ -1920,10 +1967,10 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1936,8 +1983,12 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1999,9 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
@@ -1962,7 +2015,9 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="B19" s="7" t="s">
         <v>85</v>
       </c>
@@ -1973,32 +2028,46 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C22" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2007,10 +2076,14 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C23" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2019,10 +2092,14 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2031,10 +2108,14 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2043,9 +2124,15 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2053,9 +2140,15 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2064,11 +2157,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C28" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2077,10 +2172,14 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C29" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2089,10 +2188,14 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2101,10 +2204,14 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2113,9 +2220,15 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -2123,9 +2236,15 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2133,12 +2252,14 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="7"/>
+      <c r="A34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="C34" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2147,10 +2268,14 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="C35" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -2159,10 +2284,14 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="C36" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2171,10 +2300,14 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -2184,13 +2317,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -2199,12 +2332,14 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>120</v>
+      <c r="A39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2213,10 +2348,14 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="C40" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2225,14 +2364,14 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>102</v>
+      <c r="A41" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2241,21 +2380,31 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="A42" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -2263,12 +2412,14 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>124</v>
+      <c r="A44" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2277,24 +2428,30 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="A45" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>96</v>
+      <c r="B46" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2303,10 +2460,14 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="C47" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2315,36 +2476,46 @@
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="A48" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="A49" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13" t="s">
-        <v>133</v>
+      <c r="A50" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -2353,36 +2524,46 @@
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="C51" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="A52" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" s="13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -2391,10 +2572,14 @@
       <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="C54" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -2403,188 +2588,24 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
+      <c r="A55" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A18"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>